--- a/src/test/java/ApachePOI/resource/WriteInTheExcelFile.xlsx
+++ b/src/test/java/ApachePOI/resource/WriteInTheExcelFile.xlsx
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>Merhaba Dünya</t>
+  </si>
+  <si>
+    <t>Hello</t>
   </si>
 </sst>
 </file>
@@ -355,7 +358,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="n">
         <v>1.0</v>
